--- a/src/predicciones/holt_winters/producto_192.xlsx
+++ b/src/predicciones/holt_winters/producto_192.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,102 +404,2709 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.003228099101255</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3.003237181281007</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44936</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.00334136426068</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44937</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2.003369907740354</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44940</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2.003369836594492</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44941</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.003560425556345</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44942</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3.00687594389748</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44944</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.006875044673945</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44945</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3.006884126853698</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B11">
+        <v>1.00698830983337</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44947</v>
+      </c>
+      <c r="B12">
+        <v>2.007016853313044</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B13">
+        <v>2.007016782167182</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B14">
+        <v>1.007207371129035</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B15">
+        <v>3.010522889470171</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B16">
+        <v>1.010521990246635</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B17">
+        <v>3.010531072426388</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44956</v>
+      </c>
+      <c r="B18">
+        <v>1.01063525540606</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B19">
+        <v>2.010663798885735</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B20">
+        <v>2.010663727739872</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B21">
+        <v>1.010854316701725</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B22">
+        <v>3.014169835042861</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B23">
+        <v>1.014168935819326</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B24">
+        <v>3.014178017999078</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44968</v>
+      </c>
+      <c r="B25">
+        <v>1.014282200978751</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B26">
+        <v>2.014310744458425</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B27">
+        <v>2.014310673312562</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B28">
+        <v>1.014501262274416</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B29">
+        <v>3.017816780615551</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B30">
+        <v>1.017815881392016</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B31">
+        <v>3.017824963571768</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B32">
+        <v>1.017929146551441</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B33">
+        <v>2.017957690031115</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B34">
+        <v>2.017957618885252</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B35">
+        <v>1.018148207847106</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B36">
+        <v>3.021463726188241</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B37">
+        <v>1.021462826964706</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B38">
+        <v>3.021471909144458</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B39">
+        <v>1.021576092124131</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B40">
+        <v>2.021604635603806</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B41">
+        <v>2.021604564457943</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B42">
+        <v>1.021795153419796</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B43">
+        <v>3.025110671760932</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B44">
+        <v>1.025109772537396</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B45">
+        <v>3.025118854717149</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B46">
+        <v>1.025223037696821</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B47">
+        <v>2.025251581176496</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B48">
+        <v>2.025251510030633</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B49">
+        <v>1.025442098992486</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B50">
+        <v>3.028757617333622</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B51">
+        <v>1.028756718110087</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45011</v>
+      </c>
+      <c r="B52">
+        <v>3.028765800289839</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B53">
+        <v>1.028869983269511</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B54">
+        <v>2.028898526749186</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B55">
+        <v>2.028898455603323</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B56">
+        <v>1.029089044565176</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B57">
+        <v>3.032404562906312</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B58">
+        <v>1.032403663682777</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B59">
+        <v>3.032412745862529</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B60">
+        <v>1.032516928842202</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B61">
+        <v>2.032545472321876</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B62">
+        <v>2.032545401176014</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B63">
+        <v>1.032735990137867</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B64">
+        <v>3.036051508479003</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B65">
+        <v>1.036050609255467</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B66">
+        <v>3.03605969143522</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B67">
+        <v>1.036163874414892</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B68">
+        <v>2.036192417894566</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B69">
+        <v>2.036192346748704</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B70">
+        <v>1.036382935710557</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B71">
+        <v>3.039698454051693</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B72">
+        <v>1.039697554828157</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B73">
+        <v>3.03970663700791</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B74">
+        <v>1.039810819987582</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B75">
+        <v>2.039839363467256</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B76">
+        <v>2.039839292321394</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B77">
+        <v>1.040029881283247</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B78">
+        <v>3.043345399624383</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B79">
+        <v>1.043344500400847</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B80">
+        <v>3.0433535825806</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B81">
+        <v>1.043457765560273</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B82">
+        <v>2.043486309039947</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B83">
+        <v>2.043486237894084</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B84">
+        <v>1.043676826855938</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B85">
+        <v>3.046992345197073</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B86">
+        <v>1.046991445973538</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B87">
+        <v>3.047000528153291</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B88">
+        <v>1.047104711132963</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B89">
+        <v>2.047133254612637</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B90">
+        <v>2.047133183466775</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B91">
+        <v>1.047323772428628</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B92">
+        <v>3.050639290769763</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B93">
+        <v>1.050638391546228</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B94">
+        <v>3.050647473725981</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B95">
+        <v>1.050751656705653</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B96">
+        <v>2.050780200185327</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B97">
+        <v>2.050780129039465</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B98">
+        <v>1.050970718001318</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B99">
+        <v>3.054286236342453</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B100">
+        <v>1.054285337118918</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B101">
+        <v>3.054294419298671</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B102">
+        <v>1.054398602278343</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B103">
+        <v>2.054427145758018</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B104">
+        <v>2.054427074612155</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B105">
+        <v>1.054617663574008</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B106">
+        <v>3.057933181915144</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B107">
+        <v>1.057932282691608</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B108">
+        <v>3.057941364871361</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B109">
+        <v>1.058045547851033</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B110">
+        <v>2.058074091330708</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B111">
+        <v>2.058074020184845</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B112">
+        <v>1.058264609146698</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B113">
+        <v>3.061580127487834</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B114">
+        <v>1.061579228264299</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B115">
+        <v>3.061588310444051</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B116">
+        <v>1.061692493423724</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B117">
+        <v>2.061721036903398</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B118">
+        <v>2.061720965757535</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B119">
+        <v>1.061911554719389</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B120">
+        <v>3.065227073060524</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B121">
+        <v>1.065226173836989</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B122">
+        <v>3.065235256016742</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B123">
+        <v>1.065339438996414</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B124">
+        <v>2.065367982476088</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B125">
+        <v>2.065367911330226</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B126">
+        <v>1.065558500292079</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B127">
+        <v>3.068874018633215</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B128">
+        <v>1.068873119409679</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B129">
+        <v>3.068882201589432</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B130">
+        <v>1.068986384569104</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B131">
+        <v>2.069014928048778</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B132">
+        <v>2.069014856902916</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B133">
+        <v>1.069205445864769</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B134">
+        <v>3.072520964205905</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B135">
+        <v>1.072520064982369</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B136">
+        <v>3.072529147162122</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B137">
+        <v>1.072633330141795</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B138">
+        <v>2.072661873621469</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B139">
+        <v>2.072661802475606</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B140">
+        <v>1.072852391437459</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B141">
+        <v>3.076167909778595</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B142">
+        <v>1.07616701055506</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B143">
+        <v>3.076176092734812</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B144">
+        <v>1.076280275714485</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B145">
+        <v>2.076308819194159</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B146">
+        <v>2.076308748048296</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B147">
+        <v>1.07649933701015</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B148">
+        <v>3.079814855351286</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B149">
+        <v>1.07981395612775</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B150">
+        <v>3.079823038307503</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B151">
+        <v>1.079927221287175</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B152">
+        <v>2.079955764766849</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B153">
+        <v>2.079955693620986</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B154">
+        <v>1.08014628258284</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B155">
+        <v>3.083461800923976</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B156">
+        <v>1.08346090170044</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B157">
+        <v>3.083469983880193</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B158">
+        <v>1.083574166859865</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B159">
+        <v>2.08360271033954</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B160">
+        <v>2.083602639193677</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B161">
+        <v>1.08379322815553</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B162">
+        <v>3.087108746496666</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B163">
+        <v>1.08710784727313</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B164">
+        <v>3.087116929452883</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B165">
+        <v>1.087221112432555</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B166">
+        <v>2.08724965591223</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B167">
+        <v>2.087249584766367</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B168">
+        <v>1.087440173728221</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B169">
+        <v>3.090755692069356</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B170">
+        <v>1.090754792845821</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B171">
+        <v>3.090763875025573</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B172">
+        <v>1.090868058005245</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B173">
+        <v>2.09089660148492</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B174">
+        <v>2.090896530339057</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B175">
+        <v>1.091087119300911</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B176">
+        <v>3.094402637642046</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B177">
+        <v>1.094401738418511</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B178">
+        <v>3.094410820598264</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B179">
+        <v>1.094515003577936</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B180">
+        <v>2.09454354705761</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B181">
+        <v>2.094543475911748</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B182">
+        <v>1.094734064873601</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B183">
+        <v>3.098049583214737</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B184">
+        <v>1.098048683991201</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B185">
+        <v>3.098057766170954</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B186">
+        <v>1.098161949150626</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B187">
+        <v>2.098190492630301</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B188">
+        <v>2.098190421484438</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B189">
+        <v>1.098381010446291</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B190">
+        <v>3.101696528787427</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B191">
+        <v>1.101695629563891</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B192">
+        <v>3.101704711743644</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B193">
+        <v>1.101808894723316</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B194">
+        <v>2.101837438202991</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B195">
+        <v>2.101837367057128</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B196">
+        <v>1.102027956018981</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B197">
+        <v>3.105343474360117</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B198">
+        <v>1.105342575136582</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B199">
+        <v>3.105351657316334</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B200">
+        <v>1.105455840296007</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B201">
+        <v>2.105484383775681</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B202">
+        <v>2.105484312629819</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B203">
+        <v>1.105674901591672</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B204">
+        <v>3.108990419932807</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B205">
+        <v>1.108989520709272</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B206">
+        <v>3.108998602889025</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B207">
+        <v>1.109102785868697</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B208">
+        <v>2.109131329348371</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B209">
+        <v>2.109131258202509</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B210">
+        <v>1.109321847164362</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B211">
+        <v>3.112637365505497</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B212">
+        <v>1.112636466281962</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B213">
+        <v>3.112645548461715</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B214">
+        <v>1.112749731441387</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B215">
+        <v>2.112778274921062</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B216">
+        <v>2.112778203775199</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B217">
+        <v>1.112968792737052</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B218">
+        <v>3.116284311078187</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B219">
+        <v>1.116283411854652</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B220">
+        <v>3.116292494034405</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B221">
+        <v>1.116396677014077</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B222">
+        <v>2.116425220493752</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B223">
+        <v>2.116425149347889</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B224">
+        <v>1.116615738309743</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B225">
+        <v>3.119931256650878</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B226">
+        <v>1.119930357427343</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B227">
+        <v>3.119939439607095</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B228">
+        <v>1.120043622586767</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B229">
+        <v>2.120072166066442</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B230">
+        <v>2.120072094920579</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B231">
+        <v>1.120262683882433</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B232">
+        <v>3.123578202223568</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B233">
+        <v>1.123577303000033</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B234">
+        <v>3.123586385179785</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B235">
+        <v>1.123690568159458</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B236">
+        <v>2.123719111639133</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B237">
+        <v>2.12371904049327</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B238">
+        <v>1.123909629455123</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B239">
+        <v>3.127225147796258</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B240">
+        <v>1.127224248572723</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B241">
+        <v>3.127233330752476</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B242">
+        <v>1.127337513732148</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B243">
+        <v>2.127366057211823</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B244">
+        <v>2.12736598606596</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B245">
+        <v>1.127556575027813</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B246">
+        <v>3.130872093368949</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B247">
+        <v>1.130871194145413</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
